--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-config.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-config.xlsx
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-03-18</t>
+    <t>2020-05-29</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2031,7 +2031,7 @@
     <t>TITLE</t>
   </si>
   <si>
-    <t>HZERO多租户版</t>
+    <t>HZERO平台开发环境</t>
   </si>
   <si>
     <t>system</t>
@@ -2040,25 +2040,25 @@
     <t>LOGO</t>
   </si>
   <si>
-    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/f46f13c0cb2b4aa7bb48500d80e59c2b@hzero_default_favicon.png</t>
+    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/7c76e96c1b29434e91146eb4cf0de115@hzero_default_favicon.png</t>
   </si>
   <si>
     <t>MENU_LAYOUT</t>
   </si>
   <si>
-    <t>horizontal</t>
+    <t>side-all</t>
   </si>
   <si>
     <t>MENU_LAYOUT_THEME</t>
   </si>
   <si>
-    <t>default</t>
+    <t>color</t>
   </si>
   <si>
     <t>FAVICON</t>
   </si>
   <si>
-    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/346bfba9a3a243f1a26dbbe04393746a@hzero_default_favicon.png</t>
+    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/dd067295eb584f4b9ac6e25ede85075e@hzero_default_favicon.png</t>
   </si>
   <si>
     <t>ROLE_MERGE</t>
@@ -2067,7 +2067,7 @@
     <t>HIAM.INDEX_URL</t>
   </si>
   <si>
-    <t>http://saashzerof.saas.hand-china.com/workplace</t>
+    <t>http://hzeronf.saas.hand-china.com/</t>
   </si>
   <si>
     <t>iam</t>
@@ -2100,7 +2100,7 @@
     <t>HOTH.LOGIN_SUCCESS_URL</t>
   </si>
   <si>
-    <t>http://front.hzero.org/workplace</t>
+    <t>http://hzeronf.saas.hand-china.com</t>
   </si>
   <si>
     <t>HOTH.SHOW_LANGUAGE</t>
@@ -2109,7 +2109,7 @@
     <t>HOTH.LOGO_URL</t>
   </si>
   <si>
-    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/aa2f6f6f1d9c4b0faa622f59e7ab9d1d@logo.png</t>
+    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/a1cd8238c2644553a0573c6f234700ac@logo.png</t>
   </si>
   <si>
     <t>HOTH.DEFAULT_LANGUAGE</t>

--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-config.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-config.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c7n-hzero\hzero-platform\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B595F49-3BB7-4D3A-9DAB-EB024B1CB2FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="系统配置" r:id="rId5" sheetId="2"/>
+    <sheet name="系统配置" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
   <si>
     <r>
       <rPr>
@@ -2059,9 +2060,6 @@
   </si>
   <si>
     <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/dd067295eb584f4b9ac6e25ede85075e@hzero_default_favicon.png</t>
-  </si>
-  <si>
-    <t>ROLE_MERGE</t>
   </si>
   <si>
     <t>HIAM.INDEX_URL</t>
@@ -2121,8 +2119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="29">
     <font>
       <sz val="12"/>
@@ -2242,59 +2239,70 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2487,6 +2495,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2502,21 +2521,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2856,59 +2864,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -2925,7 +2933,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -2945,7 +2953,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
+    <row r="9" spans="1:8" ht="52.2">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -2959,7 +2967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" spans="1:8" ht="52.2">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -2970,7 +2978,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="69.599999999999994">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -3002,7 +3010,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="34.799999999999997">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3019,13 +3027,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+    </row>
+    <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -3033,7 +3041,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:5">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -3041,7 +3049,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:5">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -3049,7 +3057,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:5">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -3061,21 +3069,21 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="38"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
+      <c r="E26" s="38"/>
+    </row>
+    <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -3097,39 +3105,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="7" max="7" width="20.58203125" customWidth="1"/>
+    <col min="8" max="8" width="21.08203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:9">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="1:9">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3139,16 +3153,16 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="39">
+      <c r="D7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="40">
+      <c r="E7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="41">
+      <c r="F7" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G7" t="s" s="42">
+      <c r="G7" s="37" t="s">
         <v>56</v>
       </c>
       <c r="H7" t="s">
@@ -3158,7 +3172,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9">
       <c r="E8" t="s">
         <v>59</v>
       </c>
@@ -3175,7 +3189,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9">
       <c r="E9" t="s">
         <v>59</v>
       </c>
@@ -3192,7 +3206,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9">
       <c r="E10" t="s">
         <v>59</v>
       </c>
@@ -3209,7 +3223,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9">
       <c r="E11" t="s">
         <v>59</v>
       </c>
@@ -3226,7 +3240,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9">
       <c r="E12" t="s">
         <v>59</v>
       </c>
@@ -3243,7 +3257,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9">
       <c r="E13" t="s">
         <v>59</v>
       </c>
@@ -3254,13 +3268,13 @@
         <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="E14" t="s">
         <v>59</v>
       </c>
@@ -3268,16 +3282,16 @@
         <v>60</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s">
         <v>74</v>
       </c>
-      <c r="I14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:9">
       <c r="E15" t="s">
         <v>59</v>
       </c>
@@ -3285,16 +3299,16 @@
         <v>60</v>
       </c>
       <c r="G15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s">
         <v>76</v>
       </c>
-      <c r="H15" t="s">
-        <v>77</v>
-      </c>
       <c r="I15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="E16" t="s">
         <v>59</v>
       </c>
@@ -3305,13 +3319,13 @@
         <v>78</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="5:9">
       <c r="E17" t="s">
         <v>59</v>
       </c>
@@ -3319,16 +3333,16 @@
         <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s">
+        <v>82</v>
+      </c>
+      <c r="I17" t="s">
         <v>80</v>
       </c>
-      <c r="I17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18">
+    </row>
+    <row r="18" spans="5:9">
       <c r="E18" t="s">
         <v>59</v>
       </c>
@@ -3336,16 +3350,16 @@
         <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="5:9">
       <c r="E19" t="s">
         <v>59</v>
       </c>
@@ -3353,16 +3367,16 @@
         <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="5:9">
       <c r="E20" t="s">
         <v>59</v>
       </c>
@@ -3373,13 +3387,13 @@
         <v>86</v>
       </c>
       <c r="H20" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="5:9">
       <c r="E21" t="s">
         <v>59</v>
       </c>
@@ -3387,33 +3401,18 @@
         <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G22" t="s">
-        <v>89</v>
-      </c>
-      <c r="H22" t="s">
-        <v>90</v>
-      </c>
-      <c r="I22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-config.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-config.xlsx
@@ -1,33 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c7n-hzero\hzero-platform\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B595F49-3BB7-4D3A-9DAB-EB024B1CB2FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="系统配置" sheetId="2" r:id="rId2"/>
+    <sheet name="系统配置" r:id="rId5" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
   <si>
     <r>
       <rPr>
@@ -1996,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-05-29</t>
+    <t>2020-07-06</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2032,7 +2031,7 @@
     <t>TITLE</t>
   </si>
   <si>
-    <t>HZERO平台开发环境</t>
+    <t>HZERO平台验证环境</t>
   </si>
   <si>
     <t>system</t>
@@ -2041,7 +2040,7 @@
     <t>LOGO</t>
   </si>
   <si>
-    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/7c76e96c1b29434e91146eb4cf0de115@hzero_default_favicon.png</t>
+    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/788ec398972a42a3b03cafda0fbe2c7b@hzero_default_favicon.png</t>
   </si>
   <si>
     <t>MENU_LAYOUT</t>
@@ -2062,6 +2061,9 @@
     <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/dd067295eb584f4b9ac6e25ede85075e@hzero_default_favicon.png</t>
   </si>
   <si>
+    <t>ROLE_MERGE</t>
+  </si>
+  <si>
     <t>HIAM.INDEX_URL</t>
   </si>
   <si>
@@ -2107,7 +2109,7 @@
     <t>HOTH.LOGO_URL</t>
   </si>
   <si>
-    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/a1cd8238c2644553a0573c6f234700ac@logo.png</t>
+    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/b5d0c954f6864f3abd17df903fc5766a@logo.png</t>
   </si>
   <si>
     <t>HOTH.DEFAULT_LANGUAGE</t>
@@ -2119,7 +2121,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="29">
     <font>
       <sz val="12"/>
@@ -2239,70 +2242,59 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2495,17 +2487,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2521,10 +2502,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2864,59 +2856,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" ht="18">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="40" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="41" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" ht="18">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -2933,7 +2925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="18">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -2953,7 +2945,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="52.2">
+    <row r="9" spans="1:8" ht="51.75">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -2967,7 +2959,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
+    <row r="10" spans="1:8" ht="51.75">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -2978,7 +2970,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
+    <row r="11" spans="1:8" ht="69">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -3010,7 +3002,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
+    <row r="15" spans="1:8" ht="34.5">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3027,13 +3019,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-    </row>
-    <row r="20" spans="3:5">
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -3041,7 +3033,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" ht="18">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -3049,7 +3041,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" ht="18">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -3057,7 +3049,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" ht="18">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -3069,21 +3061,21 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="38"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="38"/>
-    </row>
-    <row r="27" spans="3:5" ht="52.2">
+      <c r="E26" s="27"/>
+    </row>
+    <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -3105,45 +3097,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="7" max="7" width="20.58203125" customWidth="1"/>
-    <col min="8" max="8" width="21.08203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3153,16 +3139,16 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" t="s" s="39">
         <v>53</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" t="s" s="40">
         <v>54</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" t="s" s="41">
         <v>55</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" t="s" s="42">
         <v>56</v>
       </c>
       <c r="H7" t="s">
@@ -3172,7 +3158,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8">
       <c r="E8" t="s">
         <v>59</v>
       </c>
@@ -3189,7 +3175,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9">
       <c r="E9" t="s">
         <v>59</v>
       </c>
@@ -3206,7 +3192,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10">
       <c r="E10" t="s">
         <v>59</v>
       </c>
@@ -3223,7 +3209,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11">
       <c r="E11" t="s">
         <v>59</v>
       </c>
@@ -3240,7 +3226,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12">
       <c r="E12" t="s">
         <v>59</v>
       </c>
@@ -3257,7 +3243,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13">
       <c r="E13" t="s">
         <v>59</v>
       </c>
@@ -3268,13 +3254,13 @@
         <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="E14" t="s">
         <v>59</v>
       </c>
@@ -3282,16 +3268,16 @@
         <v>60</v>
       </c>
       <c r="G14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" t="s">
         <v>75</v>
       </c>
-      <c r="H14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+    </row>
+    <row r="15">
       <c r="E15" t="s">
         <v>59</v>
       </c>
@@ -3299,16 +3285,16 @@
         <v>60</v>
       </c>
       <c r="G15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s">
         <v>77</v>
       </c>
-      <c r="H15" t="s">
-        <v>76</v>
-      </c>
       <c r="I15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="E16" t="s">
         <v>59</v>
       </c>
@@ -3319,13 +3305,13 @@
         <v>78</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="E17" t="s">
         <v>59</v>
       </c>
@@ -3333,16 +3319,16 @@
         <v>60</v>
       </c>
       <c r="G17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" t="s">
         <v>81</v>
       </c>
-      <c r="H17" t="s">
-        <v>82</v>
-      </c>
-      <c r="I17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9">
+    </row>
+    <row r="18">
       <c r="E18" t="s">
         <v>59</v>
       </c>
@@ -3350,16 +3336,16 @@
         <v>60</v>
       </c>
       <c r="G18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" t="s">
         <v>83</v>
       </c>
-      <c r="H18" t="s">
-        <v>84</v>
-      </c>
       <c r="I18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="E19" t="s">
         <v>59</v>
       </c>
@@ -3367,16 +3353,16 @@
         <v>60</v>
       </c>
       <c r="G19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" t="s">
         <v>85</v>
       </c>
-      <c r="H19" t="s">
-        <v>76</v>
-      </c>
       <c r="I19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="5:9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="E20" t="s">
         <v>59</v>
       </c>
@@ -3387,13 +3373,13 @@
         <v>86</v>
       </c>
       <c r="H20" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="5:9">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="E21" t="s">
         <v>59</v>
       </c>
@@ -3401,18 +3387,33 @@
         <v>60</v>
       </c>
       <c r="G21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" t="s">
         <v>88</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" t="s">
         <v>89</v>
       </c>
-      <c r="I21" t="s">
-        <v>80</v>
+      <c r="H22" t="s">
+        <v>90</v>
+      </c>
+      <c r="I22" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-config.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-config.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-platform\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A8E00C-004A-4301-A5C7-F6DB7767A71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="系统配置" r:id="rId5" sheetId="2"/>
+    <sheet name="系统配置" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <r>
       <rPr>
@@ -2121,8 +2122,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="29">
     <font>
       <sz val="12"/>
@@ -2242,59 +2242,70 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2487,6 +2498,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2502,21 +2524,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2856,36 +2867,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.5546875" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -2894,21 +2905,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3019,11 +3030,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -3061,19 +3072,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="38"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
+      <c r="E26" s="38"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -3097,39 +3108,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.25"/>
+  <cols>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="8" max="8" width="28.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:9">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="1:9">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3139,16 +3156,16 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="39">
+      <c r="D7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="40">
+      <c r="E7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="41">
+      <c r="F7" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G7" t="s" s="42">
+      <c r="G7" s="37" t="s">
         <v>56</v>
       </c>
       <c r="H7" t="s">
@@ -3158,7 +3175,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:9">
       <c r="E8" t="s">
         <v>59</v>
       </c>
@@ -3175,7 +3192,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:9">
       <c r="E9" t="s">
         <v>59</v>
       </c>
@@ -3192,7 +3209,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:9">
       <c r="E10" t="s">
         <v>59</v>
       </c>
@@ -3209,7 +3226,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:9">
       <c r="E11" t="s">
         <v>59</v>
       </c>
@@ -3226,7 +3243,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:9">
       <c r="E12" t="s">
         <v>59</v>
       </c>
@@ -3243,7 +3260,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:9">
       <c r="E13" t="s">
         <v>59</v>
       </c>
@@ -3253,14 +3270,14 @@
       <c r="G13" t="s">
         <v>72</v>
       </c>
-      <c r="H13" t="s">
-        <v>60</v>
+      <c r="H13">
+        <v>1</v>
       </c>
       <c r="I13" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:9">
       <c r="E14" t="s">
         <v>59</v>
       </c>
@@ -3277,7 +3294,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:9">
       <c r="E15" t="s">
         <v>59</v>
       </c>
@@ -3294,7 +3311,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:9">
       <c r="E16" t="s">
         <v>59</v>
       </c>
@@ -3311,7 +3328,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="5:9">
       <c r="E17" t="s">
         <v>59</v>
       </c>
@@ -3328,7 +3345,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="5:9">
       <c r="E18" t="s">
         <v>59</v>
       </c>
@@ -3345,7 +3362,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="5:9">
       <c r="E19" t="s">
         <v>59</v>
       </c>
@@ -3362,7 +3379,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="5:9">
       <c r="E20" t="s">
         <v>59</v>
       </c>
@@ -3379,7 +3396,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="5:9">
       <c r="E21" t="s">
         <v>59</v>
       </c>
@@ -3396,7 +3413,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="5:9">
       <c r="E22" t="s">
         <v>59</v>
       </c>
@@ -3414,6 +3431,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-config.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-config.xlsx
@@ -1,33 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projcect\hzero-platform\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A8E00C-004A-4301-A5C7-F6DB7767A71F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="系统配置" sheetId="2" r:id="rId2"/>
+    <sheet name="系统配置" r:id="rId5" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
-    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="93">
   <si>
     <r>
       <rPr>
@@ -1996,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-07-06</t>
+    <t>2020-09-11</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2011,13 +2010,19 @@
     <t>*config_id</t>
   </si>
   <si>
-    <t>#tenant_id</t>
+    <t>tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>tenant_id:en_US</t>
   </si>
   <si>
     <t>#config_code</t>
   </si>
   <si>
-    <t>config_value</t>
+    <t>config_value:zh_CN</t>
+  </si>
+  <si>
+    <t>config_value:en_US</t>
   </si>
   <si>
     <t>category</t>
@@ -2041,7 +2046,7 @@
     <t>LOGO</t>
   </si>
   <si>
-    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/788ec398972a42a3b03cafda0fbe2c7b@hzero_default_favicon.png</t>
+    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/ff6a4c5917a947efb41ddd48b8e57f80@hzero_default_favicon.png</t>
   </si>
   <si>
     <t>MENU_LAYOUT</t>
@@ -2059,7 +2064,7 @@
     <t>FAVICON</t>
   </si>
   <si>
-    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/dd067295eb584f4b9ac6e25ede85075e@hzero_default_favicon.png</t>
+    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/9317dcdeeddf47c2bbb735a4e6bb31c0@hzero_default_favicon.png</t>
   </si>
   <si>
     <t>ROLE_MERGE</t>
@@ -2122,8 +2127,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2242,70 +2248,64 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="48"/>
+    </font>
+    <font>
       <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <color indexed="48"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2446,7 +2446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2498,17 +2498,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2524,10 +2513,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2867,36 +2868,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.44140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.5546875" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
+    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
+    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
+    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
+    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -2905,21 +2906,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="40" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3030,11 +3031,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
     </row>
     <row r="20" spans="3:5" ht="18">
       <c r="C20" s="24" t="s">
@@ -3072,19 +3073,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="38"/>
+      <c r="E25" s="27"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="38"/>
+      <c r="E26" s="27"/>
     </row>
     <row r="27" spans="3:5" ht="51.75">
       <c r="C27" s="26" t="s">
@@ -3108,45 +3109,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25"/>
-  <cols>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
-    <col min="8" max="8" width="28.21875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="27" t="s">
+    <row r="1">
+      <c r="A1" t="s" s="32">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" t="s" s="33">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" t="s" s="34">
         <v>9</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" t="s" s="35">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="E4" s="31" t="s">
+    <row r="4">
+      <c r="E4" t="s" s="36">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" t="s" s="37">
         <v>48</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" t="s" s="38">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3156,283 +3151,377 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D7" t="s" s="39">
         <v>53</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" t="s" s="40">
         <v>54</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" t="s" s="41">
         <v>55</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" t="s" s="42">
         <v>56</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" t="s" s="43">
         <v>57</v>
       </c>
       <c r="I7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="E8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" t="s">
         <v>61</v>
       </c>
-      <c r="H8" t="s">
+      <c r="F9" t="s">
         <v>62</v>
       </c>
-      <c r="I8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="E9" t="s">
-        <v>59</v>
-      </c>
-      <c r="F9" t="s">
-        <v>60</v>
-      </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" t="s">
         <v>65</v>
       </c>
-      <c r="I9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+    </row>
+    <row r="10">
       <c r="E10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>69</v>
+      </c>
+      <c r="J10" t="s">
+        <v>69</v>
+      </c>
+      <c r="K10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="E11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J11" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="E12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J12" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="E13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="H13" t="s">
+        <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="E14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>76</v>
+      </c>
+      <c r="J14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="E15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" t="s">
         <v>77</v>
       </c>
-      <c r="I15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+    </row>
+    <row r="16">
       <c r="E16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G16" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="H16" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" t="s">
         <v>77</v>
       </c>
-      <c r="I16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="17" spans="5:9">
+    </row>
+    <row r="17">
       <c r="E17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G20" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" t="s">
         <v>79</v>
       </c>
-      <c r="H17" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="5:9">
-      <c r="E18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="J20" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" t="s">
         <v>83</v>
       </c>
-      <c r="I18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="5:9">
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" t="s">
-        <v>84</v>
-      </c>
-      <c r="H19" t="s">
-        <v>85</v>
-      </c>
-      <c r="I19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="5:9">
-      <c r="E20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G20" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="5:9">
+    </row>
+    <row r="21">
       <c r="E21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="H21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="5:9">
+        <v>90</v>
+      </c>
+      <c r="J21" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="E22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G22" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I22" t="s">
-        <v>81</v>
+        <v>92</v>
+      </c>
+      <c r="J22" t="s">
+        <v>92</v>
+      </c>
+      <c r="K22" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-config.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-config.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\WorkDev\hzero-generator\src\main\resources\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c7n-hzero\hzero-platform\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35C9EB1-6B37-433B-A3A9-4256CD15E4CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="14220" tabRatio="597"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="系统配置" r:id="rId5" sheetId="2"/>
+    <sheet name="系统配置" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">README!$D$1:$D$4</definedName>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="qwe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
-    <definedName name="wqewqe"><![CDATA[REPT(local_year_format,4)&local_date_separator&REPT(local_month_format,2)&local_date_separator&REPT(local_day_format,2)&" "&REPT(local_hour_format,2)&local_time_separator&REPT(local_minute_format,2)&local_time_separator&REPT(local_second_format,2)]]></definedName>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
+    <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="97">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1996,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-11</t>
+    <t>2020-09-22</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2010,10 +2011,10 @@
     <t>*config_id</t>
   </si>
   <si>
-    <t>tenant_id:zh_CN</t>
-  </si>
-  <si>
-    <t>tenant_id:en_US</t>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
   </si>
   <si>
     <t>#config_code</t>
@@ -2046,6 +2047,9 @@
     <t>LOGO</t>
   </si>
   <si>
+    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/4778c71af8224379b8a7c047f4ed98a5@HZERO1000.png</t>
+  </si>
+  <si>
     <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/ff6a4c5917a947efb41ddd48b8e57f80@hzero_default_favicon.png</t>
   </si>
   <si>
@@ -2064,6 +2068,9 @@
     <t>FAVICON</t>
   </si>
   <si>
+    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/3cd4fa0a2bdd4ba49c2b174b0348340e@HZERO1000.png</t>
+  </si>
+  <si>
     <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/9317dcdeeddf47c2bbb735a4e6bb31c0@hzero_default_favicon.png</t>
   </si>
   <si>
@@ -2115,6 +2122,9 @@
     <t>HOTH.LOGO_URL</t>
   </si>
   <si>
+    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/38993d27121a49c2aae67a69faab18f7@hzero.png</t>
+  </si>
+  <si>
     <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/b5d0c954f6864f3abd17df903fc5766a@logo.png</t>
   </si>
   <si>
@@ -2122,13 +2132,15 @@
   </si>
   <si>
     <t>zh_CN</t>
+  </si>
+  <si>
+    <t>TENANT_DEFAULT_LANGUAGE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="30">
     <font>
       <sz val="12"/>
@@ -2248,64 +2260,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="42"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="53"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="53"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="48"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="48"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2498,6 +2522,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2513,22 +2549,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2868,59 +2892,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="15.5546875" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="2" width="10.33203125" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="28.109375" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="35.33203125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="38.5546875" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" width="23.44140625" collapsed="false"/>
-    <col min="7" max="7" customWidth="true" width="21.5546875" collapsed="false"/>
-    <col min="8" max="8" customWidth="true" width="22.0" collapsed="false"/>
-    <col min="9" max="9" customWidth="true" width="24.5546875" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" width="27.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" width="19.109375" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" width="18.5546875" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" width="13.109375" collapsed="false"/>
-    <col min="14" max="1025" customWidth="true" width="10.33203125" collapsed="false"/>
+    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.08203125" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="38.58203125" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" customWidth="1"/>
+    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
+    <col min="11" max="11" width="19.08203125" customWidth="1"/>
+    <col min="12" max="12" width="18.58203125" customWidth="1"/>
+    <col min="13" max="13" width="13.08203125" customWidth="1"/>
+    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" ht="18">
+    <row r="2" spans="1:8">
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" spans="1:8" ht="18">
-      <c r="C4" s="30" t="s">
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -2937,7 +2961,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="18">
+    <row r="7" spans="1:8">
       <c r="C7" s="10" t="s">
         <v>8</v>
       </c>
@@ -2957,7 +2981,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:8" ht="51.75">
+    <row r="9" spans="1:8" ht="52.2">
       <c r="C9" s="16" t="s">
         <v>13</v>
       </c>
@@ -2971,7 +2995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="51.75">
+    <row r="10" spans="1:8" ht="52.2">
       <c r="C10" s="19" t="s">
         <v>17</v>
       </c>
@@ -2982,7 +3006,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69">
+    <row r="11" spans="1:8" ht="69.599999999999994">
       <c r="C11" s="13" t="s">
         <v>20</v>
       </c>
@@ -3014,7 +3038,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="34.5">
+    <row r="15" spans="1:8" ht="34.799999999999997">
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
@@ -3031,13 +3055,13 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="3:5" ht="18">
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+    </row>
+    <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
         <v>31</v>
       </c>
@@ -3045,7 +3069,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5" ht="18">
+    <row r="21" spans="3:5">
       <c r="C21" s="24" t="s">
         <v>33</v>
       </c>
@@ -3053,7 +3077,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5" ht="18">
+    <row r="22" spans="3:5">
       <c r="C22" s="24" t="s">
         <v>35</v>
       </c>
@@ -3061,7 +3085,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5" ht="18">
+    <row r="23" spans="3:5">
       <c r="C23" s="24" t="s">
         <v>37</v>
       </c>
@@ -3073,21 +3097,21 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="27"/>
+      <c r="E25" s="39"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="27"/>
-    </row>
-    <row r="27" spans="3:5" ht="51.75">
+      <c r="E26" s="39"/>
+    </row>
+    <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="26" t="s">
         <v>43</v>
       </c>
@@ -3109,39 +3133,44 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="8" max="8" width="19.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="32">
+    <row r="1" spans="1:11">
+      <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s" s="33">
+      <c r="B1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s" s="34">
+      <c r="C1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s" s="35">
+      <c r="D1" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="E4" t="s" s="36">
+    <row r="4" spans="1:11">
+      <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s" s="37">
+      <c r="F4" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="G4" t="s" s="38">
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3151,19 +3180,19 @@
       <c r="C7" t="s">
         <v>52</v>
       </c>
-      <c r="D7" t="s" s="39">
+      <c r="D7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E7" t="s" s="40">
+      <c r="E7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F7" t="s" s="41">
+      <c r="F7" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G7" t="s" s="42">
+      <c r="G7" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H7" t="s" s="43">
+      <c r="H7" s="38" t="s">
         <v>57</v>
       </c>
       <c r="I7" t="s">
@@ -3176,7 +3205,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:11">
       <c r="E8" t="s">
         <v>61</v>
       </c>
@@ -3199,7 +3228,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:11">
       <c r="E9" t="s">
         <v>61</v>
       </c>
@@ -3216,13 +3245,13 @@
         <v>67</v>
       </c>
       <c r="J9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:11">
       <c r="E10" t="s">
         <v>61</v>
       </c>
@@ -3233,19 +3262,19 @@
         <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:11">
       <c r="E11" t="s">
         <v>61</v>
       </c>
@@ -3256,19 +3285,19 @@
         <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:11">
       <c r="E12" t="s">
         <v>61</v>
       </c>
@@ -3279,19 +3308,19 @@
         <v>62</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K12" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:11">
       <c r="E13" t="s">
         <v>61</v>
       </c>
@@ -3302,19 +3331,19 @@
         <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J13" t="s">
-        <v>62</v>
+        <v>76</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
       </c>
       <c r="K13" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:11">
       <c r="E14" t="s">
         <v>61</v>
       </c>
@@ -3325,19 +3354,19 @@
         <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="E15" t="s">
         <v>61</v>
       </c>
@@ -3348,19 +3377,19 @@
         <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" t="s">
         <v>79</v>
       </c>
-      <c r="J15" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16">
+    </row>
+    <row r="16" spans="1:11">
       <c r="E16" t="s">
         <v>61</v>
       </c>
@@ -3371,19 +3400,19 @@
         <v>62</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" t="s">
+        <v>81</v>
+      </c>
+      <c r="K16" t="s">
         <v>79</v>
       </c>
-      <c r="J16" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17">
+    </row>
+    <row r="17" spans="5:11">
       <c r="E17" t="s">
         <v>61</v>
       </c>
@@ -3394,19 +3423,19 @@
         <v>62</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11">
       <c r="E18" t="s">
         <v>61</v>
       </c>
@@ -3417,19 +3446,19 @@
         <v>62</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I18" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" t="s">
         <v>85</v>
       </c>
-      <c r="J18" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19">
+    </row>
+    <row r="19" spans="5:11">
       <c r="E19" t="s">
         <v>61</v>
       </c>
@@ -3440,19 +3469,19 @@
         <v>62</v>
       </c>
       <c r="H19" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11">
       <c r="E20" t="s">
         <v>61</v>
       </c>
@@ -3463,19 +3492,19 @@
         <v>62</v>
       </c>
       <c r="H20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11">
       <c r="E21" t="s">
         <v>61</v>
       </c>
@@ -3486,19 +3515,19 @@
         <v>62</v>
       </c>
       <c r="H21" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I21" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11">
       <c r="E22" t="s">
         <v>61</v>
       </c>
@@ -3509,19 +3538,44 @@
         <v>62</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J22" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K22" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11">
+      <c r="E23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" t="s">
+        <v>95</v>
+      </c>
+      <c r="K23" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-config.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\c7n-hzero\hzero-platform\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-platform\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35C9EB1-6B37-433B-A3A9-4256CD15E4CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5483A0E1-113E-4E1F-8188-87A95D72B2E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="98">
   <si>
     <r>
       <rPr>
@@ -2135,6 +2135,10 @@
   </si>
   <si>
     <t>TENANT_DEFAULT_LANGUAGE</t>
+  </si>
+  <si>
+    <t>WATERMARK</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2470,7 +2474,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2534,6 +2538,7 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2917,11 +2922,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -2930,21 +2935,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="41" t="s">
+      <c r="D3" s="40"/>
+      <c r="E3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3055,11 +3060,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
@@ -3097,19 +3102,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="39"/>
+      <c r="E25" s="40"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="39"/>
+      <c r="E26" s="40"/>
     </row>
     <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="26" t="s">
@@ -3134,15 +3139,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="8" max="8" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="20.08203125" customWidth="1"/>
+    <col min="9" max="9" width="24.9140625" customWidth="1"/>
+    <col min="10" max="10" width="19.9140625" customWidth="1"/>
+    <col min="11" max="11" width="15.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3573,9 +3581,32 @@
         <v>65</v>
       </c>
     </row>
+    <row r="24" spans="5:11">
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="I24" t="s">
+        <v>62</v>
+      </c>
+      <c r="J24" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-config.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-config.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new-choerodon\choerodon-platform\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-platform\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5483A0E1-113E-4E1F-8188-87A95D72B2E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="597" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="14220" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="100">
   <si>
     <r>
       <rPr>
@@ -1996,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-09-22</t>
+    <t>2021-02-02</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2029,6 +2028,12 @@
     <t>category</t>
   </si>
   <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
     <t>*</t>
   </si>
   <si>
@@ -2041,16 +2046,13 @@
     <t>HZERO平台验证环境</t>
   </si>
   <si>
+    <t>HZERO Platform verification environment</t>
+  </si>
+  <si>
     <t>system</t>
   </si>
   <si>
-    <t>LOGO</t>
-  </si>
-  <si>
-    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/4778c71af8224379b8a7c047f4ed98a5@HZERO1000.png</t>
-  </si>
-  <si>
-    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/ff6a4c5917a947efb41ddd48b8e57f80@hzero_default_favicon.png</t>
+    <t>now</t>
   </si>
   <si>
     <t>MENU_LAYOUT</t>
@@ -2062,16 +2064,13 @@
     <t>MENU_LAYOUT_THEME</t>
   </si>
   <si>
-    <t>color</t>
+    <t>theme2</t>
   </si>
   <si>
     <t>FAVICON</t>
   </si>
   <si>
-    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/3cd4fa0a2bdd4ba49c2b174b0348340e@HZERO1000.png</t>
-  </si>
-  <si>
-    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/9317dcdeeddf47c2bbb735a4e6bb31c0@hzero_default_favicon.png</t>
+    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/2f33708b40c645cd81773a5acd22ca29@HZERO1000.png</t>
   </si>
   <si>
     <t>ROLE_MERGE</t>
@@ -2086,12 +2085,12 @@
     <t>iam</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>HIAM.IF_SEND_MODIFY_PASSWORD</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>HIAM.IF_SEND_CREATE_USER</t>
   </si>
   <si>
@@ -2138,13 +2137,18 @@
   </si>
   <si>
     <t>WATERMARK</t>
-    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>WATERMARK_RULE</t>
+  </si>
+  <si>
+    <t>${realName}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="30">
     <font>
       <sz val="12"/>
@@ -2474,7 +2478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2538,7 +2542,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2557,7 +2560,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -2897,7 +2900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2922,11 +2925,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -2935,21 +2938,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="42" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3060,11 +3063,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
@@ -3102,19 +3105,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="40" t="s">
+      <c r="D25" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="40"/>
+      <c r="E25" s="39"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="40" t="s">
+      <c r="D26" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="40"/>
+      <c r="E26" s="39"/>
     </row>
     <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="26" t="s">
@@ -3138,22 +3141,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="8" max="8" width="20.08203125" customWidth="1"/>
-    <col min="9" max="9" width="24.9140625" customWidth="1"/>
-    <col min="10" max="10" width="19.9140625" customWidth="1"/>
-    <col min="11" max="11" width="15.08203125" customWidth="1"/>
+    <col min="8" max="8" width="17.4140625" customWidth="1"/>
+    <col min="9" max="9" width="28.5" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="27" t="s">
         <v>44</v>
       </c>
@@ -3167,7 +3170,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:13">
       <c r="E4" s="31" t="s">
         <v>47</v>
       </c>
@@ -3178,7 +3181,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -3212,341 +3215,431 @@
       <c r="K7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="E8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="E9" t="s">
         <v>63</v>
       </c>
-      <c r="I8" t="s">
+      <c r="F9" t="s">
         <v>64</v>
       </c>
-      <c r="J8" t="s">
+      <c r="G9" t="s">
         <v>64</v>
       </c>
-      <c r="K8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="E9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G9" t="s">
-        <v>62</v>
-      </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J9" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s">
         <v>68</v>
       </c>
-      <c r="K9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="E10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K10" t="s">
+        <v>68</v>
+      </c>
+      <c r="L10" t="s">
         <v>69</v>
       </c>
-      <c r="I10" t="s">
-        <v>70</v>
-      </c>
-      <c r="J10" t="s">
-        <v>70</v>
-      </c>
-      <c r="K10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="E11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="E12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
-      </c>
-      <c r="I12" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L12" t="s">
+        <v>69</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="E13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:13">
       <c r="E14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="E15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H15" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" t="s">
         <v>80</v>
       </c>
-      <c r="I15" t="s">
-        <v>81</v>
-      </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="E16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="5:11">
+        <v>85</v>
+      </c>
+      <c r="L16" t="s">
+        <v>69</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13">
       <c r="E17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="18" spans="5:11">
+      <c r="L17" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13">
       <c r="E18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="5:11">
+      <c r="L18" t="s">
+        <v>69</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13">
       <c r="E19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H19" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J19" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="20" spans="5:11">
+      <c r="L19" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13">
       <c r="E20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I20" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="5:11">
+      <c r="L20" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13">
       <c r="E21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="J21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="5:11">
+      <c r="L21" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13">
       <c r="E22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H22" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I22" t="s">
         <v>95</v>
@@ -3555,58 +3648,76 @@
         <v>95</v>
       </c>
       <c r="K22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="5:11">
+        <v>68</v>
+      </c>
+      <c r="L22" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13">
       <c r="E23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I23" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="J23" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="K23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="5:11">
+        <v>68</v>
+      </c>
+      <c r="L23" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13">
       <c r="E24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24" s="39" t="s">
-        <v>97</v>
+        <v>64</v>
+      </c>
+      <c r="H24" t="s">
+        <v>98</v>
       </c>
       <c r="I24" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="J24" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="K24" t="s">
-        <v>65</v>
+        <v>68</v>
+      </c>
+      <c r="L24" t="s">
+        <v>69</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-config.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-config.xlsx
@@ -21,12 +21,12 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="113">
   <si>
     <r>
       <rPr>
@@ -1977,172 +1977,214 @@
     </r>
   </si>
   <si>
+    <t>作者</t>
+  </si>
+  <si>
+    <t>表</t>
+  </si>
+  <si>
+    <t>*自动生成</t>
+  </si>
+  <si>
+    <t>#唯一性检查</t>
+  </si>
+  <si>
+    <t>公式=外键引用</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>hzero</t>
+  </si>
+  <si>
+    <t>系统配置</t>
+  </si>
+  <si>
+    <t>hpfm_config</t>
+  </si>
+  <si>
+    <t>*config_id</t>
+  </si>
+  <si>
+    <t>#tenant_id:zh_CN</t>
+  </si>
+  <si>
+    <t>#tenant_id:en_US</t>
+  </si>
+  <si>
+    <t>#config_code</t>
+  </si>
+  <si>
+    <t>config_value:zh_CN</t>
+  </si>
+  <si>
+    <t>config_value:en_US</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>228921365710770179</t>
+  </si>
+  <si>
+    <t>MENU_LAYOUT</t>
+  </si>
+  <si>
+    <t>leftSideCallout</t>
+  </si>
+  <si>
+    <t>plane</t>
+  </si>
+  <si>
+    <t>theme</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>MENU_LAYOUT_THEME</t>
+  </si>
+  <si>
+    <t>nightingale</t>
+  </si>
+  <si>
+    <t>theme3</t>
+  </si>
+  <si>
+    <t>FAVICON</t>
+  </si>
+  <si>
+    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/DEFAULT/55b26a87df1944b284de75165a7bf136@hzero-default-favicon.png</t>
+  </si>
+  <si>
+    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/db0760db46ae4c97b75cb02db6132238@HZERO1000.png</t>
+  </si>
+  <si>
+    <t>ROLE_MERGE</t>
+  </si>
+  <si>
+    <t>HIAM.INDEX_URL</t>
+  </si>
+  <si>
+    <t>http://hzeroall.saas.hand-china.com/</t>
+  </si>
+  <si>
+    <t>http://hzeronf.saas.hand-china.com/</t>
+  </si>
+  <si>
+    <t>iam</t>
+  </si>
+  <si>
+    <t>467</t>
+  </si>
+  <si>
+    <t>HIAM.IF_SEND_MODIFY_PASSWORD</t>
+  </si>
+  <si>
+    <t>HIAM.IF_SEND_CREATE_USER</t>
+  </si>
+  <si>
+    <t>HOTH.TITLE</t>
+  </si>
+  <si>
+    <t>HZERO</t>
+  </si>
+  <si>
+    <t>oauth</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>HOTH.COPYRIGHT</t>
+  </si>
+  <si>
+    <t>Copyright © The HZERO Author®.All rights reserved.</t>
+  </si>
+  <si>
+    <t>HOTH.LOGIN_SUCCESS_URL</t>
+  </si>
+  <si>
+    <t>http://hzeronf.saas.hand-china.com</t>
+  </si>
+  <si>
+    <t>HOTH.SHOW_LANGUAGE</t>
+  </si>
+  <si>
+    <t>HOTH.LOGO_URL</t>
+  </si>
+  <si>
+    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/e59c07ac12dc46c780c19b5a69d5f8fc@hzero.png</t>
+  </si>
+  <si>
+    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/b5d0c954f6864f3abd17df903fc5766a@logo.png</t>
+  </si>
+  <si>
+    <t>HOTH.DEFAULT_LANGUAGE</t>
+  </si>
+  <si>
+    <t>zh_CN</t>
+  </si>
+  <si>
+    <t>TENANT_DEFAULT_LANGUAGE</t>
+  </si>
+  <si>
+    <t>WATERMARK</t>
+  </si>
+  <si>
+    <t>WATERMARK_RULE</t>
+  </si>
+  <si>
+    <t>${realName}-${__CURRENT_DATE__}-${tenantName}</t>
+  </si>
+  <si>
+    <t>${loginName}-${realName}-${__CURRENT_DATE__}</t>
+  </si>
+  <si>
+    <t>MULTI_TAB</t>
+  </si>
+  <si>
+    <t>EXT_THEME_CONFIG</t>
+  </si>
+  <si>
+    <t>{"menuLayout":"leftSideCallout","menuLayoutTheme":"nightingale","multiTabFlag":1,"fieldLabelLayout":"horizontal-left","themeColor":"#0840F8","tableOperationLayout":"right"}</t>
+  </si>
+  <si>
+    <t>{"menuLayout":"side","menuLayoutTheme":"theme2","multiTabFlag":1,"fieldLabelLayout":"horizontal-left","themeColor":"#0840F8","tableOperationLayout":"right"}</t>
+  </si>
+  <si>
     <t>日期</t>
-  </si>
-  <si>
-    <t>作者</t>
-  </si>
-  <si>
-    <t>表</t>
-  </si>
-  <si>
-    <t>*自动生成</t>
-  </si>
-  <si>
-    <t>#唯一性检查</t>
-  </si>
-  <si>
-    <t>公式=外键引用</t>
-  </si>
-  <si>
-    <t>2021-02-02</t>
-  </si>
-  <si>
-    <t>hzero</t>
-  </si>
-  <si>
-    <t>系统配置</t>
-  </si>
-  <si>
-    <t>hpfm_config</t>
-  </si>
-  <si>
-    <t>*config_id</t>
-  </si>
-  <si>
-    <t>#tenant_id:zh_CN</t>
-  </si>
-  <si>
-    <t>#tenant_id:en_US</t>
-  </si>
-  <si>
-    <t>#config_code</t>
-  </si>
-  <si>
-    <t>config_value:zh_CN</t>
-  </si>
-  <si>
-    <t>config_value:en_US</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>last_update_date</t>
-  </si>
-  <si>
-    <t>last_updated_by</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>TITLE</t>
-  </si>
-  <si>
-    <t>HZERO平台验证环境</t>
-  </si>
-  <si>
-    <t>HZERO Platform verification environment</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>now</t>
-  </si>
-  <si>
-    <t>MENU_LAYOUT</t>
-  </si>
-  <si>
-    <t>side-all</t>
-  </si>
-  <si>
-    <t>MENU_LAYOUT_THEME</t>
-  </si>
-  <si>
-    <t>theme2</t>
-  </si>
-  <si>
-    <t>FAVICON</t>
-  </si>
-  <si>
-    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/2f33708b40c645cd81773a5acd22ca29@HZERO1000.png</t>
-  </si>
-  <si>
-    <t>ROLE_MERGE</t>
-  </si>
-  <si>
-    <t>HIAM.INDEX_URL</t>
-  </si>
-  <si>
-    <t>http://hzeronf.saas.hand-china.com/</t>
-  </si>
-  <si>
-    <t>iam</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>HIAM.IF_SEND_MODIFY_PASSWORD</t>
-  </si>
-  <si>
-    <t>HIAM.IF_SEND_CREATE_USER</t>
-  </si>
-  <si>
-    <t>HOTH.TITLE</t>
-  </si>
-  <si>
-    <t>HZERO</t>
-  </si>
-  <si>
-    <t>oauth</t>
-  </si>
-  <si>
-    <t>HOTH.COPYRIGHT</t>
-  </si>
-  <si>
-    <t>Copyright © The HZERO Author®.All rights reserved.</t>
-  </si>
-  <si>
-    <t>HOTH.LOGIN_SUCCESS_URL</t>
-  </si>
-  <si>
-    <t>http://hzeronf.saas.hand-china.com</t>
-  </si>
-  <si>
-    <t>HOTH.SHOW_LANGUAGE</t>
-  </si>
-  <si>
-    <t>HOTH.LOGO_URL</t>
-  </si>
-  <si>
-    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/38993d27121a49c2aae67a69faab18f7@hzero.png</t>
-  </si>
-  <si>
-    <t>http://hzerodevoss.saas.hand-china.com/hz-public/hpfm05/0/b5d0c954f6864f3abd17df903fc5766a@logo.png</t>
-  </si>
-  <si>
-    <t>HOTH.DEFAULT_LANGUAGE</t>
-  </si>
-  <si>
-    <t>zh_CN</t>
-  </si>
-  <si>
-    <t>TENANT_DEFAULT_LANGUAGE</t>
-  </si>
-  <si>
-    <t>WATERMARK</t>
-  </si>
-  <si>
-    <t>WATERMARK_RULE</t>
-  </si>
-  <si>
-    <t>${realName}</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>HZERO平台</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>HZERO  Platform</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2286,12 +2328,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="53"/>
       <name val="Calibri"/>
@@ -2338,6 +2374,13 @@
       <color indexed="48"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2478,7 +2521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2541,7 +2584,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2557,6 +2599,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2925,11 +2969,11 @@
   <sheetData>
     <row r="1" spans="1:8" ht="64.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -2938,21 +2982,21 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="41" t="s">
+      <c r="D3" s="38"/>
+      <c r="E3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3063,11 +3107,11 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="43" t="s">
+      <c r="C19" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
     </row>
     <row r="20" spans="3:5">
       <c r="C20" s="24" t="s">
@@ -3105,19 +3149,19 @@
       <c r="C25" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="39"/>
+      <c r="E25" s="38"/>
     </row>
     <row r="26" spans="3:5" ht="14.25" customHeight="1">
       <c r="C26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="39"/>
+      <c r="E26" s="38"/>
     </row>
     <row r="27" spans="3:5" ht="52.2">
       <c r="C27" s="26" t="s">
@@ -3142,582 +3186,639 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="8" max="8" width="17.4140625" customWidth="1"/>
-    <col min="9" max="9" width="28.5" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.08203125" customWidth="1"/>
+    <col min="9" max="9" width="17.58203125" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="30" t="s">
+    </row>
+    <row r="4" spans="1:13">
+      <c r="E4" s="30" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="E4" s="31" t="s">
+      <c r="F4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="G4" s="32" t="s">
         <v>48</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>51</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="E7" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="F7" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="G7" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="H7" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="38" t="s">
+      <c r="I7" t="s">
         <v>57</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>58</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>59</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>60</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>61</v>
-      </c>
-      <c r="M7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="E8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s">
         <v>63</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
         <v>64</v>
       </c>
-      <c r="G8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="44" t="s">
+        <v>112</v>
+      </c>
+      <c r="K8" t="s">
         <v>65</v>
       </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>66</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="s">
         <v>67</v>
-      </c>
-      <c r="K8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="E9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
         <v>63</v>
       </c>
-      <c r="F9" t="s">
-        <v>64</v>
-      </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" t="s">
         <v>70</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>71</v>
       </c>
-      <c r="J9" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" t="s">
-        <v>68</v>
-      </c>
       <c r="L9" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="M9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
         <v>63</v>
       </c>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" t="s">
+        <v>66</v>
+      </c>
+      <c r="M10" t="s">
         <v>72</v>
-      </c>
-      <c r="I10" t="s">
-        <v>73</v>
-      </c>
-      <c r="J10" t="s">
-        <v>73</v>
-      </c>
-      <c r="K10" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
         <v>63</v>
       </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
       <c r="G11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L11" t="s">
-        <v>69</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="M11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
         <v>63</v>
       </c>
-      <c r="F12" t="s">
-        <v>64</v>
-      </c>
       <c r="G12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
+        <v>63</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L12" t="s">
-        <v>69</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="M12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
         <v>63</v>
       </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L13" t="s">
-        <v>69</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="M13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="E14" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" t="s">
         <v>63</v>
       </c>
-      <c r="F14" t="s">
-        <v>64</v>
-      </c>
       <c r="G14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="I14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L14" t="s">
-        <v>69</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="M14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
         <v>63</v>
       </c>
-      <c r="F15" t="s">
-        <v>64</v>
-      </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="K15" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L15" t="s">
-        <v>69</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="M15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
         <v>63</v>
       </c>
-      <c r="F16" t="s">
-        <v>64</v>
-      </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="J16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L16" t="s">
-        <v>69</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="M16" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="5:13">
       <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
         <v>63</v>
       </c>
-      <c r="F17" t="s">
-        <v>64</v>
-      </c>
       <c r="G17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I17" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J17" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L17" t="s">
-        <v>69</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="M17" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="5:13">
       <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
         <v>63</v>
       </c>
-      <c r="F18" t="s">
-        <v>64</v>
-      </c>
       <c r="G18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I18" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" t="s">
         <v>89</v>
       </c>
-      <c r="J18" t="s">
-        <v>89</v>
-      </c>
-      <c r="K18" t="s">
-        <v>85</v>
-      </c>
       <c r="L18" t="s">
-        <v>69</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="M18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="5:13">
       <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
         <v>63</v>
       </c>
-      <c r="F19" t="s">
-        <v>64</v>
-      </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H19" t="s">
+        <v>95</v>
+      </c>
+      <c r="I19" t="s">
+        <v>72</v>
+      </c>
+      <c r="J19" t="s">
+        <v>72</v>
+      </c>
+      <c r="K19" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" t="s">
         <v>90</v>
-      </c>
-      <c r="I19" t="s">
-        <v>80</v>
-      </c>
-      <c r="J19" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="5:13">
       <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
         <v>63</v>
       </c>
-      <c r="F20" t="s">
-        <v>64</v>
-      </c>
       <c r="G20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H20" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J20" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K20" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L20" t="s">
-        <v>69</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="M20" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="5:13">
       <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
         <v>63</v>
       </c>
-      <c r="F21" t="s">
-        <v>64</v>
-      </c>
       <c r="G21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H21" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I21" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J21" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K21" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="L21" t="s">
-        <v>69</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="M21" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="5:13">
       <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
         <v>63</v>
       </c>
-      <c r="F22" t="s">
-        <v>64</v>
-      </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H22" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I22" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J22" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L22" t="s">
-        <v>69</v>
-      </c>
-      <c r="M22">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="M22" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="5:13">
       <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
         <v>63</v>
       </c>
-      <c r="F23" t="s">
-        <v>64</v>
-      </c>
       <c r="G23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H23" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I23" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="J23" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="K23" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L23" t="s">
-        <v>69</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="M23" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="5:13">
       <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
         <v>63</v>
       </c>
-      <c r="F24" t="s">
-        <v>64</v>
-      </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H24" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I24" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J24" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="K24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L24" t="s">
-        <v>69</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="M24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13">
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25" t="s">
+        <v>66</v>
+      </c>
+      <c r="M25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13">
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" t="s">
+        <v>108</v>
+      </c>
+      <c r="J26" t="s">
+        <v>109</v>
+      </c>
+      <c r="K26" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26" t="s">
+        <v>66</v>
+      </c>
+      <c r="M26" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-config.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_platform/hzero_platform/hzero-platform-config.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\choerodon\choerodon-platform\src\main\resources\script\db\init-data\hzero_platform\hzero_platform\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28692" windowHeight="14220" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12420" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -21,19 +16,18 @@
     <definedName name="qwe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
     <definedName name="wqewqe">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="113">
   <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">注意这个文档不能 </t>
@@ -52,7 +46,6 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！！
@@ -65,7 +58,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">正式的数据从第二个 </t>
@@ -84,7 +76,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页开始</t>
@@ -103,7 +94,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">每页 从 </t>
@@ -122,7 +112,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格开始有效
@@ -154,7 +143,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>颜色示例</t>
@@ -173,7 +161,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非必须</t>
@@ -192,7 +179,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>非强制</t>
@@ -214,7 +200,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>请给特殊单元格</t>
@@ -235,7 +220,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列名添加颜色</t>
@@ -256,7 +240,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>提高数据可读性</t>
@@ -277,7 +260,6 @@
         <sz val="12"/>
         <color rgb="FFC55A11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动生成</t>
@@ -298,7 +280,6 @@
         <sz val="12"/>
         <color rgb="FF2E75B6"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>唯一性检查</t>
@@ -310,7 +291,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -329,7 +309,6 @@
         <sz val="12"/>
         <color rgb="FF548235"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -341,7 +320,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>理论上</t>
@@ -360,7 +338,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表的前后顺序</t>
@@ -379,7 +356,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>页的顺序没有严格要求</t>
@@ -398,7 +374,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但请尽量按照先插 后引用的顺序排列</t>
@@ -417,7 +392,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>减少迭代次数</t>
@@ -465,7 +439,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -484,7 +457,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>该列的值自动生成</t>
@@ -503,7 +475,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当数据库存在等价记录时</t>
@@ -522,7 +493,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>这个值会被替换为数据库中已存在的值</t>
@@ -534,7 +504,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自增长</t>
@@ -553,7 +522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>或序列</t>
@@ -572,7 +540,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>主键列</t>
@@ -592,7 +559,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当不作为外键引用时</t>
@@ -611,7 +577,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般写</t>
@@ -631,7 +596,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>作为外键时</t>
@@ -650,7 +614,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>写可读的值</t>
@@ -662,7 +625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">目前 </t>
@@ -681,7 +643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是序列</t>
@@ -700,7 +661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他自增涨</t>
@@ -724,7 +684,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前置</t>
@@ -743,7 +702,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表中所有带有</t>
@@ -762,7 +720,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的列组成一个唯一性校验</t>
@@ -781,7 +738,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>在执行插入之前</t>
@@ -800,7 +756,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会首先按照唯一键来检查数据库是否存在等价记录</t>
@@ -812,7 +767,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可以有多列</t>
@@ -831,7 +785,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>仅支持</t>
@@ -842,7 +795,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>数字</t>
@@ -863,7 +815,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">字符串
@@ -874,7 +825,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当</t>
@@ -893,7 +843,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>列涉及到公式时</t>
@@ -912,7 +861,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>会先确定公式的值</t>
@@ -936,7 +884,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定这一列的类型</t>
@@ -955,7 +902,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>默认会自动检测</t>
@@ -975,7 +921,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为数字</t>
@@ -995,7 +940,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>结尾为日期</t>
@@ -1015,7 +959,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他默认为</t>
@@ -1036,7 +979,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般不需要指定</t>
@@ -1056,7 +998,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>日期格式仅支持</t>
@@ -1091,7 +1032,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>指定语言环境</t>
@@ -1112,7 +1052,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>表数据不需要专门写</t>
@@ -1124,7 +1063,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>外键引用</t>
@@ -1143,7 +1081,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>公式</t>
@@ -1164,7 +1101,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>用于引用外键</t>
@@ -1183,7 +1119,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>也可用于普通值
@@ -1196,7 +1131,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>自动增长列</t>
@@ -1215,7 +1149,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>如果被公式引用</t>
@@ -1234,7 +1167,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最好写一个人可以读懂的值</t>
@@ -1253,7 +1185,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>增强公式可读性</t>
@@ -1268,7 +1199,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一般用于引用自动生成的外键</t>
@@ -1287,7 +1217,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">所有公式均为 </t>
@@ -1306,7 +1235,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>支持的标准公式</t>
@@ -1325,7 +1253,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>但不支持特别复杂的计算公式</t>
@@ -1344,7 +1271,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>比如范围计算</t>
@@ -1360,7 +1286,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1370,7 +1295,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1389,7 +1313,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1405,7 +1328,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1415,7 +1337,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用当前页 </t>
@@ -1434,7 +1355,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1449,7 +1369,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1468,7 +1387,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1487,7 +1405,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1507,7 +1424,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1531,7 +1447,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用 </t>
@@ -1550,7 +1465,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">页的 </t>
@@ -1569,7 +1483,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格</t>
@@ -1589,7 +1502,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1610,7 +1522,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1621,7 +1532,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对</t>
@@ -1631,7 +1541,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1643,7 +1552,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>举例</t>
@@ -1662,7 +1570,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">当 </t>
@@ -1681,7 +1588,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">单元格引用 </t>
@@ -1700,7 +1606,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">时
@@ -1720,7 +1625,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1739,7 +1643,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>单元格时</t>
@@ -1758,7 +1661,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">引用的是 </t>
@@ -1778,7 +1680,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">将 </t>
@@ -1797,7 +1698,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">的复制到 </t>
@@ -1816,7 +1716,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时</t>
@@ -1835,7 +1734,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">实际引用的是 </t>
@@ -1855,7 +1753,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>以上情况适用于拖拽填充</t>
@@ -1867,7 +1764,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>关于</t>
@@ -1878,7 +1774,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对</t>
@@ -1888,7 +1783,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>引用</t>
@@ -1900,7 +1794,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>复制公式单元格时</t>
@@ -1919,7 +1812,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>保持公式不变</t>
@@ -1931,7 +1823,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>相对引用</t>
@@ -1950,7 +1841,6 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绝对引用各有用途</t>
@@ -1970,13 +1860,15 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>直接拖拽填充就可以避免大量重复工作</t>
     </r>
   </si>
   <si>
+    <t>日期</t>
+  </si>
+  <si>
     <t>作者</t>
   </si>
   <si>
@@ -2040,6 +1932,12 @@
     <t>TITLE</t>
   </si>
   <si>
+    <t>HZERO平台</t>
+  </si>
+  <si>
+    <t>HZERO  Platform</t>
+  </si>
+  <si>
     <t>system</t>
   </si>
   <si>
@@ -2173,28 +2071,64 @@
   </si>
   <si>
     <t>{"menuLayout":"side","menuLayoutTheme":"theme2","multiTabFlag":1,"fieldLabelLayout":"horizontal-left","themeColor":"#0840F8","tableOperationLayout":"right"}</t>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>HZERO平台</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>HZERO  Platform</t>
-    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="53"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="48"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -2230,38 +2164,155 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="DengXian"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFC55A11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF2E75B6"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF548235"/>
-      <name val="DengXian"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2282,108 +2333,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC55A11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF2E75B6"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF548235"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="53"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="48"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="12"/>
+      <color rgb="FF548235"/>
+      <name val="DengXian"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2414,8 +2402,194 @@
         <bgColor rgb="FFE7E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2516,13 +2690,261 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2531,32 +2953,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2566,47 +3000,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -2679,9 +3135,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2939,886 +3392,889 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="28.08203125" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="38.58203125" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" customWidth="1"/>
-    <col min="7" max="7" width="21.58203125" customWidth="1"/>
+    <col min="1" max="1" width="15.5851851851852" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.3333333333333" style="8" customWidth="1"/>
+    <col min="3" max="3" width="28.0814814814815" customWidth="1"/>
+    <col min="4" max="4" width="35.3333333333333" style="9" customWidth="1"/>
+    <col min="5" max="5" width="38.5851851851852" customWidth="1"/>
+    <col min="6" max="6" width="23.4148148148148" customWidth="1"/>
+    <col min="7" max="7" width="21.5851851851852" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="24.58203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5851851851852" customWidth="1"/>
     <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="11" width="19.08203125" customWidth="1"/>
-    <col min="12" max="12" width="18.58203125" customWidth="1"/>
-    <col min="13" max="13" width="13.08203125" customWidth="1"/>
-    <col min="14" max="1025" width="10.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.0814814814815" customWidth="1"/>
+    <col min="12" max="12" width="18.5851851851852" customWidth="1"/>
+    <col min="13" max="13" width="13.0814814814815" customWidth="1"/>
+    <col min="14" max="1025" width="10.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="64.5" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="C1" s="39" t="s">
+    <row r="1" ht="64.5" customHeight="1" spans="1:8">
+      <c r="A1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="49.5" customHeight="1">
-      <c r="C3" s="38" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+    </row>
+    <row r="2" ht="18" spans="5:5">
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" ht="49.5" customHeight="1" spans="3:7">
+      <c r="C3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="40" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="C4" s="41" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" ht="18" spans="3:7">
+      <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
+    <row r="5" spans="1:3">
+      <c r="A5" s="10"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="C7" s="10" t="s">
+    <row r="7" ht="18" spans="3:5">
+      <c r="C7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="C8" s="13" t="s">
+    <row r="8" spans="3:5">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:8" ht="52.2">
-      <c r="C9" s="16" t="s">
+      <c r="E8" s="25"/>
+    </row>
+    <row r="9" ht="51.75" spans="3:6">
+      <c r="C9" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
-      <c r="C10" s="19" t="s">
+    <row r="10" ht="51.75" spans="3:5">
+      <c r="C10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="28" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="69.599999999999994">
-      <c r="C11" s="13" t="s">
+    <row r="11" ht="69" spans="3:5">
+      <c r="C11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="C12" s="13" t="s">
+    <row r="12" spans="3:5">
+      <c r="C12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="C13" s="13"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" ht="34.799999999999997">
-      <c r="C15" s="21" t="s">
+    <row r="13" spans="3:5">
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+    </row>
+    <row r="15" ht="34.5" spans="3:5">
+      <c r="C15" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="C20" s="24" t="s">
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+    </row>
+    <row r="20" ht="18" spans="3:4">
+      <c r="C20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="3:5">
-      <c r="C21" s="24" t="s">
+    <row r="21" ht="18" spans="3:4">
+      <c r="C21" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="3:5">
-      <c r="C22" s="24" t="s">
+    <row r="22" ht="18" spans="3:4">
+      <c r="C22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="3:5">
-      <c r="C23" s="24" t="s">
+    <row r="23" ht="18" spans="3:4">
+      <c r="C23" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="3:5" ht="69" customHeight="1">
-      <c r="C25" s="25" t="s">
+    <row r="25" ht="69" customHeight="1" spans="3:5">
+      <c r="C25" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="38"/>
-    </row>
-    <row r="26" spans="3:5" ht="14.25" customHeight="1">
-      <c r="C26" s="14" t="s">
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" ht="14.25" customHeight="1" spans="3:5">
+      <c r="C26" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="38" t="s">
+      <c r="D26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="38"/>
-    </row>
-    <row r="27" spans="3:5" ht="52.2">
-      <c r="C27" s="26" t="s">
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" ht="51.75" spans="3:3">
+      <c r="C27" s="37" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
   </mergeCells>
-  <phoneticPr fontId="17" type="noConversion"/>
-  <pageMargins left="0.69791666666666696" right="0.69791666666666696" top="0.75" bottom="0.75" header="0.51041666666666696" footer="0.51041666666666696"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.697916666666667" right="0.697916666666667" top="0.75" bottom="0.75" header="0.510416666666667" footer="0.510416666666667"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="8" max="8" width="23.08203125" customWidth="1"/>
-    <col min="9" max="9" width="17.58203125" customWidth="1"/>
-    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="8" max="8" width="23.0814814814815" customWidth="1"/>
+    <col min="9" max="9" width="17.5851851851852" customWidth="1"/>
+    <col min="10" max="10" width="18.5037037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="E4" s="30" t="s">
+      <c r="D1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="31" t="s">
+    </row>
+    <row r="4" spans="5:7">
+      <c r="E4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="F4" s="4" t="s">
         <v>48</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="D7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="E7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="F7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="G7" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="H7" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="5:13">
       <c r="E8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13">
+      <c r="E9" t="s">
         <v>63</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13">
+      <c r="E10" t="s">
         <v>63</v>
       </c>
-      <c r="H8" t="s">
+      <c r="F10" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="J8" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="K8" t="s">
-        <v>65</v>
-      </c>
-      <c r="L8" t="s">
-        <v>66</v>
-      </c>
-      <c r="M8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="E9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" t="s">
+        <v>69</v>
+      </c>
+      <c r="M10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13">
+      <c r="E11" t="s">
         <v>63</v>
       </c>
-      <c r="G9" t="s">
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13">
+      <c r="E12" t="s">
         <v>63</v>
       </c>
-      <c r="H9" t="s">
-        <v>68</v>
-      </c>
-      <c r="I9" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10" t="s">
-        <v>71</v>
-      </c>
-      <c r="L10" t="s">
-        <v>66</v>
-      </c>
-      <c r="M10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" t="s">
-        <v>77</v>
-      </c>
-      <c r="J11" t="s">
-        <v>78</v>
-      </c>
-      <c r="K11" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" t="s">
-        <v>66</v>
-      </c>
-      <c r="M11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
-      </c>
-      <c r="I12" t="s">
-        <v>63</v>
+        <v>82</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13">
       <c r="E13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I13" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="5:13">
+      <c r="E14" t="s">
         <v>63</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13">
+      <c r="E15" t="s">
         <v>63</v>
       </c>
-      <c r="H13" t="s">
-        <v>80</v>
-      </c>
-      <c r="I13" t="s">
-        <v>81</v>
-      </c>
-      <c r="J13" t="s">
-        <v>82</v>
-      </c>
-      <c r="K13" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="E14" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" t="s">
+        <v>89</v>
+      </c>
+      <c r="I15" t="s">
+        <v>75</v>
+      </c>
+      <c r="J15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13">
+      <c r="E16" t="s">
         <v>63</v>
       </c>
-      <c r="G14" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" t="s">
-        <v>72</v>
-      </c>
-      <c r="K14" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" t="s">
-        <v>66</v>
-      </c>
-      <c r="M14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="E15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" t="s">
-        <v>86</v>
-      </c>
-      <c r="I15" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K15" t="s">
-        <v>83</v>
-      </c>
-      <c r="L15" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
       <c r="F16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M16" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="5:13">
       <c r="E17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I17" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" t="s">
         <v>92</v>
       </c>
-      <c r="J17" t="s">
-        <v>92</v>
-      </c>
-      <c r="K17" t="s">
-        <v>89</v>
-      </c>
       <c r="L17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M17" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="5:13">
       <c r="E18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="J18" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="5:13">
       <c r="E19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H19" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K19" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L19" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M19" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="5:13">
       <c r="E20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I20" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J20" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M20" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="5:13">
       <c r="E21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I21" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J21" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K21" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M21" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="5:13">
       <c r="E22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H22" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I22" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J22" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K22" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L22" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="5:13">
       <c r="E23" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J23" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="5:13">
       <c r="E24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H24" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I24" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J24" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L24" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="5:13">
       <c r="E25" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H25" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="I25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="5:13">
       <c r="E26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H26" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I26" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="J26" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L26" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M26" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>